--- a/Documentation/Diagrams/Class_Diagrams.xlsx
+++ b/Documentation/Diagrams/Class_Diagrams.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
   <si>
     <t>Weapon</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>has_X...</t>
+  </si>
+  <si>
+    <t>Cross</t>
   </si>
 </sst>
 </file>
@@ -2188,8 +2191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2504,7 +2507,7 @@
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="8" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -3230,7 +3233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Diagrams/Class_Diagrams.xlsx
+++ b/Documentation/Diagrams/Class_Diagrams.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
   <si>
     <t>Weapon</t>
   </si>
@@ -62,12 +62,6 @@
     <t>destroy_actor()</t>
   </si>
   <si>
-    <t>Collectible</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Story_Pickup</t>
   </si>
   <si>
@@ -77,24 +71,15 @@
     <t>Audio_Log</t>
   </si>
   <si>
-    <t>note_text</t>
-  </si>
-  <si>
     <t>audio_file</t>
   </si>
   <si>
-    <t>number</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
     <t>description</t>
   </si>
   <si>
-    <t>Pickup_Item</t>
-  </si>
-  <si>
     <t>Character</t>
   </si>
   <si>
@@ -188,12 +173,6 @@
     <t>fire (pistol)</t>
   </si>
   <si>
-    <t>fire pistol</t>
-  </si>
-  <si>
-    <t>fire rifle</t>
-  </si>
-  <si>
     <t>jump</t>
   </si>
   <si>
@@ -221,12 +200,6 @@
     <t>Audio Model</t>
   </si>
   <si>
-    <t xml:space="preserve">Various Collectible </t>
-  </si>
-  <si>
-    <t>Models</t>
-  </si>
-  <si>
     <t>move()</t>
   </si>
   <si>
@@ -246,6 +219,51 @@
   </si>
   <si>
     <t>Cross</t>
+  </si>
+  <si>
+    <t>Artiifact</t>
+  </si>
+  <si>
+    <t>string description</t>
+  </si>
+  <si>
+    <t>Upgrade</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>float health</t>
+  </si>
+  <si>
+    <t>Artifact Model</t>
+  </si>
+  <si>
+    <t>Collectable</t>
+  </si>
+  <si>
+    <t>int ID_Number</t>
+  </si>
+  <si>
+    <t>Upgrade Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fire </t>
+  </si>
+  <si>
+    <t>reload</t>
+  </si>
+  <si>
+    <t>Point Light</t>
+  </si>
+  <si>
+    <t>Main Demon</t>
+  </si>
+  <si>
+    <t>Beast</t>
+  </si>
+  <si>
+    <t>Magic Effect</t>
   </si>
 </sst>
 </file>
@@ -382,8 +400,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -495,7 +563,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="131">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -536,6 +604,31 @@
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -576,6 +669,31 @@
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1016,15 +1134,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>622300</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1032,9 +1150,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5702300" y="2298700"/>
-          <a:ext cx="2044700" cy="622300"/>
+        <a:xfrm>
+          <a:off x="5651500" y="2301875"/>
+          <a:ext cx="0" cy="650875"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1064,13 +1182,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>622300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1109,13 +1227,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>774700</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1129,100 +1247,6 @@
         <a:xfrm flipH="1">
           <a:off x="5664200" y="4673600"/>
           <a:ext cx="12700" cy="622300"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle" w="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Connector 22"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5676900" y="4660900"/>
-          <a:ext cx="1955800" cy="635000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle" w="lg"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>622300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Connector 25"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5702300" y="2286000"/>
-          <a:ext cx="12700" cy="635000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1270,6 +1294,147 @@
         <a:xfrm>
           <a:off x="5664200" y="2286000"/>
           <a:ext cx="2032000" cy="635000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>777876</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>619125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3651250" y="7032625"/>
+          <a:ext cx="2016126" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Connector 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7731125" y="4683125"/>
+          <a:ext cx="1984375" cy="635000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>603250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Connector 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7747000" y="4699000"/>
+          <a:ext cx="0" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1839,6 +2004,53 @@
         <a:xfrm flipH="1">
           <a:off x="3276600" y="7035800"/>
           <a:ext cx="4089400" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>619125</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Connector 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7334250" y="7064375"/>
+          <a:ext cx="4079875" cy="587375"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2191,8 +2403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2228,7 +2440,7 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2242,7 +2454,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="1"/>
       <c r="H5" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -2256,7 +2468,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="1"/>
       <c r="H6" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -2270,7 +2482,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
       <c r="H7" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -2282,7 +2494,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -2296,7 +2508,7 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -2362,7 +2574,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="8" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2378,7 +2590,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -2414,13 +2626,13 @@
     <row r="18" spans="2:12">
       <c r="C18" s="1"/>
       <c r="D18" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2430,7 +2642,7 @@
     <row r="19" spans="2:12">
       <c r="C19" s="1"/>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -2444,7 +2656,7 @@
     <row r="20" spans="2:12">
       <c r="C20" s="1"/>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2507,7 +2719,7 @@
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -2586,20 +2798,20 @@
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -2727,7 +2939,7 @@
   <dimension ref="B3:L42"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="B4" sqref="B4:J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2762,7 +2974,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -2774,7 +2986,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -2784,7 +2996,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="H6" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -2794,7 +3006,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="H7" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -2803,7 +3015,7 @@
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -2849,9 +3061,12 @@
         <v>7</v>
       </c>
       <c r="E14" s="1"/>
+      <c r="F14" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="8" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2862,6 +3077,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="1"/>
       <c r="H15" s="2"/>
       <c r="I15" s="1"/>
@@ -2873,6 +3089,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="2"/>
       <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="1"/>
       <c r="H16" s="2"/>
       <c r="I16" s="1"/>
@@ -2884,6 +3101,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
       <c r="G17" s="1"/>
       <c r="H17" s="2"/>
       <c r="I17" s="1"/>
@@ -2897,9 +3115,12 @@
         <v>11</v>
       </c>
       <c r="E18" s="1"/>
+      <c r="F18" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="4" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2910,6 +3131,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
       <c r="G19" s="1"/>
       <c r="H19" s="2"/>
       <c r="I19" s="1"/>
@@ -2921,6 +3143,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
       <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
       <c r="G20" s="1"/>
       <c r="H20" s="2"/>
       <c r="I20" s="1"/>
@@ -2932,6 +3155,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="4"/>
       <c r="E21" s="1"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="1"/>
       <c r="H21" s="4"/>
       <c r="I21" s="1"/>
@@ -2943,6 +3167,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="3"/>
       <c r="E22" s="1"/>
+      <c r="F22" s="3"/>
       <c r="G22" s="1"/>
       <c r="H22" s="3"/>
       <c r="I22" s="1"/>
@@ -2954,11 +3179,6 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
@@ -2971,16 +3191,11 @@
         <v>10</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="1"/>
       <c r="H24" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="1"/>
+        <v>72</v>
+      </c>
       <c r="J24" s="8" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -2990,10 +3205,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="2"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="1"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="1"/>
       <c r="J25" s="2"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -3003,10 +3215,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="1"/>
       <c r="J26" s="2"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -3016,10 +3225,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="1"/>
       <c r="J27" s="2"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -3029,12 +3235,9 @@
       <c r="C28" s="1"/>
       <c r="D28" s="4"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="1"/>
+      <c r="H28" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="J28" s="4"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -3044,10 +3247,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="2"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="1"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="1"/>
       <c r="J29" s="2"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -3057,30 +3257,24 @@
       <c r="C30" s="1"/>
       <c r="D30" s="2"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="1"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="1"/>
       <c r="J30" s="2"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="2:12">
       <c r="B31" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="J31" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
@@ -3089,12 +3283,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="3"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I32" s="1"/>
+      <c r="H32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -3102,8 +3291,6 @@
     <row r="33" spans="2:12" ht="50" customHeight="1">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -3114,108 +3301,95 @@
     </row>
     <row r="34" spans="2:12" ht="16" thickBot="1">
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
       <c r="F34" s="8" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="J34" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="2:12">
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
       <c r="F35" s="2"/>
       <c r="G35" s="1"/>
       <c r="H35" s="2"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="J35" s="2"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="2:12">
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
       <c r="F36" s="2"/>
       <c r="G36" s="1"/>
       <c r="H36" s="2"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="J36" s="2"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="2:12">
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
       <c r="F37" s="2"/>
       <c r="G37" s="1"/>
       <c r="H37" s="2"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="J37" s="2"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="2:12">
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="F38" s="4"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="H38" s="4"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="J38" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="2:12">
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
       <c r="F39" s="2"/>
       <c r="G39" s="1"/>
       <c r="H39" s="2"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
+      <c r="J39" s="2"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="2:12">
       <c r="F40" s="2"/>
-      <c r="G40" s="1"/>
       <c r="H40" s="2"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
+      <c r="J40" s="2"/>
     </row>
     <row r="41" spans="2:12">
       <c r="F41" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G41" s="1"/>
+        <v>71</v>
+      </c>
       <c r="H41" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
+      <c r="J41" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="42" spans="2:12">
       <c r="F42" s="3"/>
-      <c r="G42" s="1"/>
       <c r="H42" s="3"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
+      <c r="J42" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3233,8 +3407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3249,6 +3423,7 @@
     <col min="8" max="8" width="20.83203125" customWidth="1"/>
     <col min="9" max="9" width="5.83203125" customWidth="1"/>
     <col min="10" max="10" width="20.83203125" customWidth="1"/>
+    <col min="11" max="11" width="5.83203125" customWidth="1"/>
     <col min="12" max="12" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3268,10 +3443,10 @@
       <c r="C4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -3280,10 +3455,10 @@
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -3293,7 +3468,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="H6" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -3303,7 +3478,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -3312,10 +3487,10 @@
       <c r="C8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -3332,7 +3507,7 @@
       <c r="C10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -3342,7 +3517,7 @@
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -3352,7 +3527,7 @@
       <c r="C12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -3368,12 +3543,12 @@
     <row r="14" spans="3:12" ht="16" thickBot="1">
       <c r="C14" s="1"/>
       <c r="D14" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -3384,7 +3559,7 @@
       <c r="E15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -3395,7 +3570,7 @@
       <c r="E16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -3415,7 +3590,7 @@
       <c r="E18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -3426,14 +3601,16 @@
       <c r="E19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="2:12">
       <c r="C20" s="1"/>
-      <c r="D20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="E20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="7"/>
@@ -3446,7 +3623,7 @@
       <c r="E21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -3472,26 +3649,26 @@
     </row>
     <row r="24" spans="2:12" ht="16" thickBot="1">
       <c r="B24" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="2:12">
@@ -3505,7 +3682,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="1"/>
       <c r="L25" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:12">
@@ -3519,7 +3696,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="1"/>
       <c r="L26" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="2:12">
@@ -3533,7 +3710,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="1"/>
       <c r="L27" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="2:12">
@@ -3547,7 +3724,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="1"/>
       <c r="L28" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="2:12">
@@ -3573,7 +3750,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="1"/>
       <c r="L30" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="2:12">
@@ -3585,11 +3762,11 @@
       <c r="H31" s="2"/>
       <c r="I31" s="1"/>
       <c r="J31" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="2" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="2:12">
@@ -3603,7 +3780,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="1"/>
       <c r="L32" s="3" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="2:12" ht="50" customHeight="1">
@@ -3620,21 +3797,23 @@
     <row r="34" spans="2:12" ht="16" thickBot="1">
       <c r="C34" s="1"/>
       <c r="D34" s="8" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="8" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="L34" s="8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="35" spans="2:12">
       <c r="C35" s="1"/>
@@ -3645,6 +3824,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="2"/>
       <c r="K35" s="1"/>
+      <c r="L35" s="2"/>
     </row>
     <row r="36" spans="2:12">
       <c r="C36" s="1"/>
@@ -3655,6 +3835,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="2"/>
       <c r="K36" s="1"/>
+      <c r="L36" s="2"/>
     </row>
     <row r="37" spans="2:12">
       <c r="C37" s="1"/>
@@ -3665,6 +3846,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="2"/>
       <c r="K37" s="1"/>
+      <c r="L37" s="2"/>
     </row>
     <row r="38" spans="2:12">
       <c r="C38" s="1"/>
@@ -3675,7 +3857,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="4"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
+      <c r="L38" s="4"/>
     </row>
     <row r="39" spans="2:12">
       <c r="C39" s="1"/>
@@ -3686,16 +3868,22 @@
       <c r="I39" s="1"/>
       <c r="J39" s="2"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
+      <c r="L39" s="2"/>
     </row>
     <row r="40" spans="2:12">
       <c r="D40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="F40" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="7"/>
+      <c r="J40" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
+      <c r="L40" s="7"/>
     </row>
     <row r="41" spans="2:12">
       <c r="D41" s="2"/>
@@ -3704,7 +3892,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="2"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
+      <c r="L41" s="2"/>
     </row>
     <row r="42" spans="2:12">
       <c r="D42" s="3"/>
@@ -3713,7 +3901,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="3"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
+      <c r="L42" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Documentation/Diagrams/Class_Diagrams.xlsx
+++ b/Documentation/Diagrams/Class_Diagrams.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="1" r:id="rId1"/>
     <sheet name="Ammo" sheetId="3" r:id="rId2"/>
     <sheet name="Character" sheetId="4" r:id="rId3"/>
+    <sheet name="Blendspace" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="94">
   <si>
     <t>Weapon</t>
   </si>
@@ -264,6 +266,45 @@
   </si>
   <si>
     <t>Magic Effect</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Top Speed</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>Idle</t>
+  </si>
+  <si>
+    <t>Running Backwards</t>
+  </si>
+  <si>
+    <t>Walking Backwards</t>
+  </si>
+  <si>
+    <t>Walking Left</t>
+  </si>
+  <si>
+    <t>Running Left</t>
+  </si>
+  <si>
+    <t>Walking Forwards</t>
+  </si>
+  <si>
+    <t>Running Forwards</t>
+  </si>
+  <si>
+    <t>Running Right</t>
+  </si>
+  <si>
+    <t>Walking Right</t>
   </si>
 </sst>
 </file>
@@ -310,7 +351,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,8 +364,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -399,8 +458,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="131">
+  <cellStyleXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -532,8 +693,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -562,8 +733,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="131">
+  <cellStyles count="141">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -629,6 +834,11 @@
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -694,11 +904,317 @@
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$8:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-180.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-180.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-180.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-90.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-90.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-90.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>180.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$8:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="r"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2118642296"/>
+        <c:axId val="-2131615608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2118642296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="180.0"/>
+          <c:min val="-180.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Direction</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>  (Degrees)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2131615608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="90.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2131615608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Speed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0117845117845118"/>
+              <c:y val="0.419472044411715"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2118642296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10.0"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1"/>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2074,6 +2590,41 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3407,7 +3958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
@@ -3913,4 +4464,466 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:O24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="3:15">
+      <c r="F1" s="11"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" spans="3:15">
+      <c r="F2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+    </row>
+    <row r="3" spans="3:15">
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+    </row>
+    <row r="4" spans="3:15">
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+    </row>
+    <row r="5" spans="3:15">
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" spans="3:15">
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+    </row>
+    <row r="7" spans="3:15">
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="3:15">
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="3:15">
+      <c r="C9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+    </row>
+    <row r="10" spans="3:15">
+      <c r="C10" s="1">
+        <v>-180</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+    </row>
+    <row r="11" spans="3:15">
+      <c r="C11" s="1">
+        <v>-90</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="3:15">
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="3:15">
+      <c r="C13" s="1">
+        <v>90</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+    </row>
+    <row r="14" spans="3:15">
+      <c r="C14" s="1">
+        <v>180</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+    </row>
+    <row r="15" spans="3:15">
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="3:15">
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="6:15">
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+    </row>
+    <row r="18" spans="6:15">
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+    </row>
+    <row r="19" spans="6:15">
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="6:15">
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="6:15">
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+    </row>
+    <row r="22" spans="6:15">
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+    </row>
+    <row r="23" spans="6:15">
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="6:15">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:P31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:5" ht="16" thickBot="1"/>
+    <row r="7" spans="3:5">
+      <c r="C7" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" s="21">
+        <v>-180</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" s="21">
+        <v>-180</v>
+      </c>
+      <c r="D9" s="24">
+        <v>10</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" s="21">
+        <v>-180</v>
+      </c>
+      <c r="D10" s="24">
+        <v>20</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" s="21">
+        <v>-90</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" s="21">
+        <v>-90</v>
+      </c>
+      <c r="D12" s="24">
+        <v>10</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" s="21">
+        <v>-90</v>
+      </c>
+      <c r="D13" s="24">
+        <v>20</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="21">
+        <v>0</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="C15" s="21">
+        <v>0</v>
+      </c>
+      <c r="D15" s="24">
+        <v>10</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16" s="21">
+        <v>0</v>
+      </c>
+      <c r="D16" s="24">
+        <v>20</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" s="21">
+        <v>90</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18" s="21">
+        <v>90</v>
+      </c>
+      <c r="D18" s="24">
+        <v>10</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19" s="21">
+        <v>90</v>
+      </c>
+      <c r="D19" s="24">
+        <v>20</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="C20" s="21">
+        <v>180</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="C21" s="21">
+        <v>180</v>
+      </c>
+      <c r="D21" s="24">
+        <v>10</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="16" thickBot="1">
+      <c r="C22" s="22">
+        <v>180</v>
+      </c>
+      <c r="D22" s="25">
+        <v>20</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>